--- a/src/test/resources/Test_Data/Testdata.xlsx
+++ b/src/test/resources/Test_Data/Testdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SPDAP\Projects\SPDAP\src\test\resources\Test_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SPDAP\GIT\SPDAP\src\test\resources\Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008412C0-F405-4673-AFDF-EF89DC7282C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1A0036-92CE-43C7-837F-14901111CC93}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="10920" firstSheet="5" activeTab="6" xr2:uid="{217BF7B5-FA9E-4CC4-A147-2515272ABA64}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="10920" firstSheet="6" activeTab="6" xr2:uid="{217BF7B5-FA9E-4CC4-A147-2515272ABA64}"/>
   </bookViews>
   <sheets>
     <sheet name="RegistrationData" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="337">
   <si>
     <t>UserName</t>
   </si>
@@ -934,12 +934,6 @@
     <t>CallStartTime</t>
   </si>
   <si>
-    <t>001010</t>
-  </si>
-  <si>
-    <t>001012</t>
-  </si>
-  <si>
     <t>How do you cope with stress?</t>
   </si>
   <si>
@@ -1033,9 +1027,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>03/22/2021</t>
-  </si>
-  <si>
     <t>Phone</t>
   </si>
   <si>
@@ -1043,6 +1034,21 @@
   </si>
   <si>
     <t>(333) 555-5555</t>
+  </si>
+  <si>
+    <t>existing member</t>
+  </si>
+  <si>
+    <t>PDP</t>
+  </si>
+  <si>
+    <t>00:10:12</t>
+  </si>
+  <si>
+    <t>04/06/2021</t>
+  </si>
+  <si>
+    <t>00:10:10</t>
   </si>
 </sst>
 </file>
@@ -1803,7 +1809,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1839,10 +1845,10 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1">
       <c r="A2" s="22" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>260</v>
@@ -1867,8 +1873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFBC56A5-4A5D-4111-8BDC-652855EF5BEC}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1888,66 +1894,66 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C1" t="s">
         <v>302</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G1" t="s">
+        <v>305</v>
+      </c>
+      <c r="H1" t="s">
+        <v>306</v>
+      </c>
+      <c r="I1" t="s">
+        <v>308</v>
+      </c>
+      <c r="J1" t="s">
         <v>303</v>
-      </c>
-      <c r="C1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E1" t="s">
-        <v>315</v>
-      </c>
-      <c r="F1" t="s">
-        <v>306</v>
-      </c>
-      <c r="G1" t="s">
-        <v>307</v>
-      </c>
-      <c r="H1" t="s">
-        <v>308</v>
-      </c>
-      <c r="I1" t="s">
-        <v>310</v>
-      </c>
-      <c r="J1" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="13" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>232</v>
       </c>
       <c r="E2" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>314</v>
-      </c>
       <c r="G2" s="13" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>232</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -1961,7 +1967,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1977,25 +1983,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="D1" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>330</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>319</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>320</v>
-      </c>
       <c r="G1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2009,16 +2015,16 @@
         <v>224</v>
       </c>
       <c r="D2" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="G2" s="13" t="s">
         <v>322</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -2031,9 +2037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC61CF41-A6AC-4199-98E0-853BC3E6E197}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2045,10 +2049,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="18" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>234</v>
@@ -2057,24 +2061,24 @@
         <v>184</v>
       </c>
       <c r="E1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="13" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>243</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -2087,8 +2091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95425E7-CD36-4D6F-8114-6B86AF7B5A10}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3311,8 +3315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B79027-B6D2-41BD-BFB3-E58455C7BF68}">
   <dimension ref="A1:AG3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3450,12 +3454,12 @@
         <v>218</v>
       </c>
       <c r="AG1" s="21" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:33" s="8" customFormat="1">
       <c r="A2" s="8" t="s">
-        <v>73</v>
+        <v>332</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>290</v>
@@ -3467,7 +3471,7 @@
         <v>292</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>227</v>
@@ -3509,13 +3513,13 @@
         <v>295</v>
       </c>
       <c r="S2" s="11" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="T2" s="10" t="s">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="U2" s="10" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="V2" s="9" t="s">
         <v>224</v>
@@ -3548,7 +3552,7 @@
         <v>227</v>
       </c>
       <c r="AF2" s="13" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="AG2" s="13" t="s">
         <v>204</v>
@@ -3556,7 +3560,7 @@
     </row>
     <row r="3" spans="1:33" s="8" customFormat="1">
       <c r="A3" s="13" t="s">
-        <v>74</v>
+        <v>333</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>290</v>
@@ -3610,13 +3614,13 @@
         <v>295</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="T3" s="10" t="s">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="U3" s="10" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="V3" s="9" t="s">
         <v>224</v>
@@ -3649,7 +3653,7 @@
         <v>227</v>
       </c>
       <c r="AF3" s="13" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="AG3" s="13" t="s">
         <v>204</v>
@@ -3665,8 +3669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1725B01-6BF8-441E-B88A-2612201A50F0}">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3783,7 +3787,7 @@
         <v>244</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>223</v>
@@ -3835,7 +3839,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
